--- a/natmiOut/YoungD4/LR-pairs_lrc2p/B2m-Gm11127.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/B2m-Gm11127.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1770.75923964881</v>
+        <v>1790.094238333333</v>
       </c>
       <c r="H2">
-        <v>1770.75923964881</v>
+        <v>5370.282715</v>
       </c>
       <c r="I2">
-        <v>0.2000216923726102</v>
+        <v>0.1978827026976269</v>
       </c>
       <c r="J2">
-        <v>0.2000216923726102</v>
+        <v>0.1978827026976269</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.0133903804568996</v>
+        <v>0.359983</v>
       </c>
       <c r="N2">
-        <v>0.0133903804568996</v>
+        <v>1.079949</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9497806167005701</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9497806167005701</v>
       </c>
       <c r="Q2">
-        <v>23.71113991646782</v>
+        <v>644.4034941979484</v>
       </c>
       <c r="R2">
-        <v>23.71113991646782</v>
+        <v>5799.631447781536</v>
       </c>
       <c r="S2">
-        <v>0.2000216923726102</v>
+        <v>0.1879451554025277</v>
       </c>
       <c r="T2">
-        <v>0.2000216923726102</v>
+        <v>0.1879451554025277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,57 +596,57 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1070.86228208931</v>
+        <v>1790.094238333333</v>
       </c>
       <c r="H3">
-        <v>1070.86228208931</v>
+        <v>5370.282715</v>
       </c>
       <c r="I3">
-        <v>0.1209626250511505</v>
+        <v>0.1978827026976269</v>
       </c>
       <c r="J3">
-        <v>0.1209626250511505</v>
+        <v>0.1978827026976269</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0133903804568996</v>
+        <v>0.019034</v>
       </c>
       <c r="N3">
-        <v>0.0133903804568996</v>
+        <v>0.057102</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.05021938329942984</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.05021938329942984</v>
       </c>
       <c r="Q3">
-        <v>14.3392533741196</v>
+        <v>34.07265373243666</v>
       </c>
       <c r="R3">
-        <v>14.3392533741196</v>
+        <v>306.65388359193</v>
       </c>
       <c r="S3">
-        <v>0.1209626250511505</v>
+        <v>0.009937547295099245</v>
       </c>
       <c r="T3">
-        <v>0.1209626250511505</v>
+        <v>0.009937547295099247</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2546.04472763035</v>
+        <v>1072.362365666667</v>
       </c>
       <c r="H4">
-        <v>2546.04472763035</v>
+        <v>3217.087097</v>
       </c>
       <c r="I4">
-        <v>0.2875965088161759</v>
+        <v>0.1185423418752029</v>
       </c>
       <c r="J4">
-        <v>0.2875965088161759</v>
+        <v>0.1185423418752029</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0133903804568996</v>
+        <v>0.359983</v>
       </c>
       <c r="N4">
-        <v>0.0133903804568996</v>
+        <v>1.079949</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9497806167005701</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9497806167005701</v>
       </c>
       <c r="Q4">
-        <v>34.0925075632537</v>
+        <v>386.0322214797836</v>
       </c>
       <c r="R4">
-        <v>34.0925075632537</v>
+        <v>3474.289993318053</v>
       </c>
       <c r="S4">
-        <v>0.2875965088161759</v>
+        <v>0.11258921857136</v>
       </c>
       <c r="T4">
-        <v>0.2875965088161759</v>
+        <v>0.11258921857136</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3371.42199991778</v>
+        <v>1072.362365666667</v>
       </c>
       <c r="H5">
-        <v>3371.42199991778</v>
+        <v>3217.087097</v>
       </c>
       <c r="I5">
-        <v>0.3808296006743119</v>
+        <v>0.1185423418752029</v>
       </c>
       <c r="J5">
-        <v>0.3808296006743119</v>
+        <v>0.1185423418752029</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0133903804568996</v>
+        <v>0.019034</v>
       </c>
       <c r="N5">
-        <v>0.0133903804568996</v>
+        <v>0.057102</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.05021938329942984</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.05021938329942984</v>
       </c>
       <c r="Q5">
-        <v>45.14462325966041</v>
+        <v>20.41134526809933</v>
       </c>
       <c r="R5">
-        <v>45.14462325966041</v>
+        <v>183.702107412894</v>
       </c>
       <c r="S5">
-        <v>0.3808296006743119</v>
+        <v>0.005953123303842865</v>
       </c>
       <c r="T5">
-        <v>0.3808296006743119</v>
+        <v>0.005953123303842866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,365 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2676.771728333333</v>
+      </c>
+      <c r="H6">
+        <v>8030.315184999999</v>
+      </c>
+      <c r="I6">
+        <v>0.2958988486552321</v>
+      </c>
+      <c r="J6">
+        <v>0.2958988486552321</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.359983</v>
+      </c>
+      <c r="N6">
+        <v>1.079949</v>
+      </c>
+      <c r="O6">
+        <v>0.9497806167005701</v>
+      </c>
+      <c r="P6">
+        <v>0.9497806167005701</v>
+      </c>
+      <c r="Q6">
+        <v>963.5923170806183</v>
+      </c>
+      <c r="R6">
+        <v>8672.330853725565</v>
+      </c>
+      <c r="S6">
+        <v>0.281038990956755</v>
+      </c>
+      <c r="T6">
+        <v>0.281038990956755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>93.7477538716124</v>
-      </c>
-      <c r="H6">
-        <v>93.7477538716124</v>
-      </c>
-      <c r="I6">
-        <v>0.0105895730857515</v>
-      </c>
-      <c r="J6">
-        <v>0.0105895730857515</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.0133903804568996</v>
-      </c>
-      <c r="N6">
-        <v>0.0133903804568996</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1.255318091320673</v>
-      </c>
-      <c r="R6">
-        <v>1.255318091320673</v>
-      </c>
-      <c r="S6">
-        <v>0.0105895730857515</v>
-      </c>
-      <c r="T6">
-        <v>0.0105895730857515</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2676.771728333333</v>
+      </c>
+      <c r="H7">
+        <v>8030.315184999999</v>
+      </c>
+      <c r="I7">
+        <v>0.2958988486552321</v>
+      </c>
+      <c r="J7">
+        <v>0.2958988486552321</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.019034</v>
+      </c>
+      <c r="N7">
+        <v>0.057102</v>
+      </c>
+      <c r="O7">
+        <v>0.05021938329942984</v>
+      </c>
+      <c r="P7">
+        <v>0.05021938329942984</v>
+      </c>
+      <c r="Q7">
+        <v>50.94967307709666</v>
+      </c>
+      <c r="R7">
+        <v>458.54705769387</v>
+      </c>
+      <c r="S7">
+        <v>0.01485985769847708</v>
+      </c>
+      <c r="T7">
+        <v>0.01485985769847708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3409.239257666667</v>
+      </c>
+      <c r="H8">
+        <v>10227.717773</v>
+      </c>
+      <c r="I8">
+        <v>0.3768681357681173</v>
+      </c>
+      <c r="J8">
+        <v>0.3768681357681174</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.359983</v>
+      </c>
+      <c r="N8">
+        <v>1.079949</v>
+      </c>
+      <c r="O8">
+        <v>0.9497806167005701</v>
+      </c>
+      <c r="P8">
+        <v>0.9497806167005701</v>
+      </c>
+      <c r="Q8">
+        <v>1227.26817569262</v>
+      </c>
+      <c r="R8">
+        <v>11045.41358123358</v>
+      </c>
+      <c r="S8">
+        <v>0.3579420504046367</v>
+      </c>
+      <c r="T8">
+        <v>0.3579420504046367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3409.239257666667</v>
+      </c>
+      <c r="H9">
+        <v>10227.717773</v>
+      </c>
+      <c r="I9">
+        <v>0.3768681357681173</v>
+      </c>
+      <c r="J9">
+        <v>0.3768681357681174</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.019034</v>
+      </c>
+      <c r="N9">
+        <v>0.057102</v>
+      </c>
+      <c r="O9">
+        <v>0.05021938329942984</v>
+      </c>
+      <c r="P9">
+        <v>0.05021938329942984</v>
+      </c>
+      <c r="Q9">
+        <v>64.89146003042733</v>
+      </c>
+      <c r="R9">
+        <v>584.023140273846</v>
+      </c>
+      <c r="S9">
+        <v>0.01892608536348065</v>
+      </c>
+      <c r="T9">
+        <v>0.01892608536348065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>97.77148966666668</v>
+      </c>
+      <c r="H10">
+        <v>293.314469</v>
+      </c>
+      <c r="I10">
+        <v>0.01080797100382067</v>
+      </c>
+      <c r="J10">
+        <v>0.01080797100382067</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.359983</v>
+      </c>
+      <c r="N10">
+        <v>1.079949</v>
+      </c>
+      <c r="O10">
+        <v>0.9497806167005701</v>
+      </c>
+      <c r="P10">
+        <v>0.9497806167005701</v>
+      </c>
+      <c r="Q10">
+        <v>35.19607416467567</v>
+      </c>
+      <c r="R10">
+        <v>316.7646674820811</v>
+      </c>
+      <c r="S10">
+        <v>0.01026520136529067</v>
+      </c>
+      <c r="T10">
+        <v>0.01026520136529067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>97.77148966666668</v>
+      </c>
+      <c r="H11">
+        <v>293.314469</v>
+      </c>
+      <c r="I11">
+        <v>0.01080797100382067</v>
+      </c>
+      <c r="J11">
+        <v>0.01080797100382067</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.019034</v>
+      </c>
+      <c r="N11">
+        <v>0.057102</v>
+      </c>
+      <c r="O11">
+        <v>0.05021938329942984</v>
+      </c>
+      <c r="P11">
+        <v>0.05021938329942984</v>
+      </c>
+      <c r="Q11">
+        <v>1.860982534315333</v>
+      </c>
+      <c r="R11">
+        <v>16.748842808838</v>
+      </c>
+      <c r="S11">
+        <v>0.0005427696385299935</v>
+      </c>
+      <c r="T11">
+        <v>0.0005427696385299935</v>
       </c>
     </row>
   </sheetData>
